--- a/data/expt_2/raw_transcripts/game77.xlsx
+++ b/data/expt_2/raw_transcripts/game77.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="M2U00168.MPG.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="M2U00168.MPG.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C158">
+    <comment ref="C158" authorId="0">
       <text>
-        <t xml:space="preserve">id141 pressed before finishing this sentence
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">id141 pressed before finishing this sentence
 	-Rebecca Jacqueline Pizzitola</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -29,61 +45,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="185">
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Now I'm recording.</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>so I remember how to do the game</t>
-  </si>
-  <si>
-    <t>He's cute.</t>
-  </si>
-  <si>
-    <t>id141</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>Thank you guys so much for coming to play my game with me.</t>
-  </si>
-  <si>
-    <t>I'm never been to your game room.</t>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now I'm recording.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so I remember how to do the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's cute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you guys so much for coming to play my game with me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm never been to your game room.</t>
   </si>
   <si>
     <t xml:space="preserve"> I know, you haven't.</t>
   </si>
   <si>
-    <t>Neither of you have.</t>
-  </si>
-  <si>
-    <t>Owie!</t>
+    <t xml:space="preserve">Neither of you have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owie!</t>
   </si>
   <si>
     <t xml:space="preserve"> We're going to play matching games day, but before we play the match</t>
@@ -92,106 +108,106 @@
     <t xml:space="preserve"> match game, we're going to practice touching the iPads by playing a bubble-popping game.</t>
   </si>
   <si>
-    <t>So why don't you press...</t>
-  </si>
-  <si>
-    <t>Press. Press the blue button on your screen and then try to pop all of the bubbles.</t>
+    <t xml:space="preserve">So why don't you press...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press. Press the blue button on your screen and then try to pop all of the bubbles.</t>
   </si>
   <si>
     <t xml:space="preserve"> I did it.</t>
   </si>
   <si>
-    <t>Me too</t>
-  </si>
-  <si>
-    <t>id142</t>
-  </si>
-  <si>
-    <t>Pop those two, the yellow ones.</t>
-  </si>
-  <si>
-    <t>I did</t>
-  </si>
-  <si>
-    <t>Good job.</t>
-  </si>
-  <si>
-    <t>Oh.</t>
-  </si>
-  <si>
-    <t>Alright.</t>
-  </si>
-  <si>
-    <t>Hi!</t>
-  </si>
-  <si>
-    <t>Now you're ready to play the matching game.</t>
+    <t xml:space="preserve">Me too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop those two, the yellow ones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you're ready to play the matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, this is...</t>
   </si>
   <si>
-    <t>What do we press now?</t>
-  </si>
-  <si>
-    <t>I'm going to explain the game and then we can play.</t>
+    <t xml:space="preserve">What do we press now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm going to explain the game and then we can play.</t>
   </si>
   <si>
     <t xml:space="preserve"> wait, all right? This is Smurphy. You want to say hi?</t>
   </si>
   <si>
-    <t>Hi Smurphy.</t>
-  </si>
-  <si>
-    <t>Hi Smurfi.</t>
-  </si>
-  <si>
-    <t>All right. In this game you're going to help Smurphy by telling him what to</t>
-  </si>
-  <si>
-    <t>press on the screen. You each are going to have two pictures on your screen. One of you will</t>
+    <t xml:space="preserve">Hi Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Smurfi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All right. In this game you're going to help Smurphy by telling him what to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">press on the screen. You each are going to have two pictures on your screen. One of you will</t>
   </si>
   <si>
     <t xml:space="preserve"> have a black box around one of the pictures. If you have this black box, that means that</t>
   </si>
   <si>
-    <t>you're the teller and you have to tell Smurphy what picture is in the box. If you don't</t>
-  </si>
-  <si>
-    <t>have the black box that means you have Smurphy and you're going to try you're</t>
-  </si>
-  <si>
-    <t>going to help Smurf guess which of the photos it is by pressing it on the iPad. Does</t>
-  </si>
-  <si>
-    <t>that make sense? Okay. We're going to take turns playing teller and</t>
-  </si>
-  <si>
-    <t>guesser. So if you have the black box what are you going to be?</t>
-  </si>
-  <si>
-    <t>Teller.</t>
-  </si>
-  <si>
-    <t>Mm-hmm. You're going to tell the other person what pictures in the</t>
-  </si>
-  <si>
-    <t>box and if you have Smurphy and you're the guesser what are you going to do?</t>
-  </si>
-  <si>
-    <t>I don't know.</t>
-  </si>
-  <si>
-    <t>Help him.</t>
-  </si>
-  <si>
-    <t>Mm-hmm.</t>
+    <t xml:space="preserve">you're the teller and you have to tell Smurphy what picture is in the box. If you don't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have the black box that means you have Smurphy and you're going to try you're</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to help Smurf guess which of the photos it is by pressing it on the iPad. Does</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that make sense? Okay. We're going to take turns playing teller and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guesser. So if you have the black box what are you going to be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mm-hmm. You're going to tell the other person what pictures in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box and if you have Smurphy and you're the guesser what are you going to do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mm-hmm.</t>
   </si>
   <si>
     <t xml:space="preserve"> By pressing which photo it is, right?</t>
   </si>
   <si>
-    <t>We're going to take turns being teller and guesser.</t>
+    <t xml:space="preserve">We're going to take turns being teller and guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you get it right, you're going to see a smiley face on your screen.</t>
@@ -200,217 +216,217 @@
     <t xml:space="preserve"> If you get it wrong, you're going to see a frowny face, but that's okay because you're</t>
   </si>
   <si>
-    <t>going to have a lot of tries to get it right.</t>
-  </si>
-  <si>
-    <t>I know how to play it.</t>
-  </si>
-  <si>
-    <t>You're ready to play the game then.</t>
-  </si>
-  <si>
-    <t>So press the blue button.</t>
-  </si>
-  <si>
-    <t>Who has the black box?</t>
-  </si>
-  <si>
-    <t>I have the black box.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Awesome.</t>
-  </si>
-  <si>
-    <t>So you're going to be the teller and you're going to have Smofi first and then we'll trade.</t>
-  </si>
-  <si>
-    <t>So why don't you tell [id141] what you see in the black box?</t>
-  </si>
-  <si>
-    <t>You can't show.</t>
-  </si>
-  <si>
-    <t>You have to use your words to tell.</t>
+    <t xml:space="preserve">going to have a lot of tries to get it right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know how to play it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're ready to play the game then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So press the blue button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who has the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you're going to be the teller and you're going to have Smofi first and then we'll trade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So why don't you tell [id141] what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can't show.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to use your words to tell.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, you have to use your words.</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>I know that already.</t>
-  </si>
-  <si>
-    <t>You want to tell [id141] what you see in the box?</t>
-  </si>
-  <si>
-    <t>What's the name of this person?</t>
-  </si>
-  <si>
-    <t>That's Smurphy.</t>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know that already.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You want to tell [id141] what you see in the box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the name of this person?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's Smurphy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Hey, I love [id142].</t>
   </si>
   <si>
-    <t>[id142] tell [id141] what you see in the box.</t>
-  </si>
-  <si>
-    <t>Apple.</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>Apple?</t>
-  </si>
-  <si>
-    <t>Do I press this?</t>
-  </si>
-  <si>
-    <t>Good.</t>
-  </si>
-  <si>
-    <t>Now give Spurphy to [id142].</t>
-  </si>
-  <si>
-    <t>I have a happy face.</t>
-  </si>
-  <si>
-    <t>[id141] give Murphy to [id142] because he's going to be the guester now and you're going to tell [id142] what you see in the black box.</t>
-  </si>
-  <si>
-    <t>Hi [id141].</t>
-  </si>
-  <si>
-    <t>The dog.</t>
-  </si>
-  <si>
-    <t>the dog</t>
-  </si>
-  <si>
-    <t>Dog.</t>
-  </si>
-  <si>
-    <t>Doggy.</t>
+    <t xml:space="preserve">[id142] tell [id141] what you see in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do I press this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now give Spurphy to [id142].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a happy face.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id141] give Murphy to [id142] because he's going to be the guester now and you're going to tell [id142] what you see in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi [id141].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doggy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, Smurphy can't press.</t>
   </si>
   <si>
-    <t>That's why you got to help him.</t>
-  </si>
-  <si>
-    <t>That's funny.</t>
-  </si>
-  <si>
-    <t>It's your turn to tell again.</t>
-  </si>
-  <si>
-    <t>I see a boat.</t>
-  </si>
-  <si>
-    <t>a boat</t>
+    <t xml:space="preserve">That's why you got to help him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's funny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's your turn to tell again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a boat</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, you got to tell [id142] what you see in the box.</t>
   </si>
   <si>
-    <t>Tree!</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Here.</t>
-  </si>
-  <si>
-    <t>I see a airplane in my box.</t>
-  </si>
-  <si>
-    <t>a airplane</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>I see a airplane.</t>
-  </si>
-  <si>
-    <t>Airplane?</t>
-  </si>
-  <si>
-    <t>Which one's the airplane?</t>
+    <t xml:space="preserve">Tree!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a airplane in my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one's the airplane?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, don't show her.</t>
   </si>
   <si>
-    <t>You got to use your words.</t>
-  </si>
-  <si>
-    <t>It is a airplane.</t>
+    <t xml:space="preserve">You got to use your words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a airplane.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you think it is, press it.</t>
   </si>
   <si>
-    <t>Good job!</t>
-  </si>
-  <si>
-    <t>I got it.</t>
-  </si>
-  <si>
-    <t>Tell [id142] what you see in the box.</t>
-  </si>
-  <si>
-    <t>I don't know what this is.</t>
-  </si>
-  <si>
-    <t>Just do your best to describe it.</t>
-  </si>
-  <si>
-    <t>I don't know what it is.</t>
-  </si>
-  <si>
-    <t>What does it look like?</t>
-  </si>
-  <si>
-    <t>Diamond.</t>
-  </si>
-  <si>
-    <t>diamond</t>
-  </si>
-  <si>
-    <t>So I see a person looking down.</t>
-  </si>
-  <si>
-    <t>a person looking down</t>
-  </si>
-  <si>
-    <t>I see a person looking up!</t>
-  </si>
-  <si>
-    <t>a person looking up</t>
-  </si>
-  <si>
-    <t>Yeah!</t>
-  </si>
-  <si>
-    <t>Whoa!</t>
-  </si>
-  <si>
-    <t>Look.</t>
+    <t xml:space="preserve">Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell [id142] what you see in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know what this is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just do your best to describe it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know what it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does it look like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I see a person looking down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person looking down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person looking up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person looking up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whoa!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, why don't you tell [id141] what you think it looks like?</t>
@@ -419,142 +435,142 @@
     <t xml:space="preserve"> It's a do-, it's somebody looking up.</t>
   </si>
   <si>
-    <t>somebody looking up</t>
-  </si>
-  <si>
-    <t>Up?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>Woo!</t>
-  </si>
-  <si>
-    <t>Ha!</t>
-  </si>
-  <si>
-    <t>BART.</t>
-  </si>
-  <si>
-    <t>No he is just fart.</t>
+    <t xml:space="preserve">somebody looking up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BART.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No he is just fart.</t>
   </si>
   <si>
     <t xml:space="preserve"> [id141], why don't you tell [id142] what you see in the box?</t>
   </si>
   <si>
-    <t>Doing your best to describe it.</t>
+    <t xml:space="preserve">Doing your best to describe it.</t>
   </si>
   <si>
     <t xml:space="preserve"> [id142], press the black square.</t>
   </si>
   <si>
-    <t>black square</t>
-  </si>
-  <si>
-    <t>Don't tell him what it is.</t>
-  </si>
-  <si>
-    <t>Or don't show him what it is.</t>
-  </si>
-  <si>
-    <t>You have to tell him.</t>
-  </si>
-  <si>
-    <t>Black square?</t>
+    <t xml:space="preserve">black square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't tell him what it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or don't show him what it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to tell him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black square?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, black square.</t>
   </si>
   <si>
-    <t>That's okay.</t>
-  </si>
-  <si>
-    <t>You can try again.</t>
-  </si>
-  <si>
-    <t>I see a person looking down.</t>
+    <t xml:space="preserve">That's okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can try again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person looking down.</t>
   </si>
   <si>
     <t xml:space="preserve"> I wait until [id142] is finished telling you which it is, okay?</t>
   </si>
   <si>
-    <t>Why do you have those drawings?</t>
-  </si>
-  <si>
-    <t>Why do I have a what?</t>
-  </si>
-  <si>
-    <t>Why do you have the drawings?</t>
+    <t xml:space="preserve">Why do you have those drawings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do I have a what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you have the drawings?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, these are so I can teach you how to play the game, but you know how to play now.</t>
   </si>
   <si>
-    <t>Airplane.</t>
-  </si>
-  <si>
-    <t>airplane</t>
-  </si>
-  <si>
-    <t>Airplane [id142].</t>
-  </si>
-  <si>
-    <t>I see a person looking up holding a triangle.</t>
-  </si>
-  <si>
-    <t>a person looking up holding a triangle</t>
-  </si>
-  <si>
-    <t>I see a person flying!</t>
-  </si>
-  <si>
-    <t>a person flying</t>
-  </si>
-  <si>
-    <t>Awesome!</t>
-  </si>
-  <si>
-    <t>[laughs]</t>
-  </si>
-  <si>
-    <t>I see a airplane again.</t>
-  </si>
-  <si>
-    <t>What did you see?</t>
-  </si>
-  <si>
-    <t>I see somebody looking up holding a triangle again.</t>
-  </si>
-  <si>
-    <t>somebody looking up holding a triangle</t>
-  </si>
-  <si>
-    <t>Fart.</t>
-  </si>
-  <si>
-    <t>I see a person flying.</t>
-  </si>
-  <si>
-    <t>You guys did it!</t>
-  </si>
-  <si>
-    <t>You guys did so good!</t>
-  </si>
-  <si>
-    <t>You only got one wrong the whole time!</t>
-  </si>
-  <si>
-    <t>Thank you so much for helping Smurphy by playing my game.</t>
-  </si>
-  <si>
-    <t>I want to play again</t>
+    <t xml:space="preserve">Airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane [id142].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person looking up holding a triangle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person looking up holding a triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person flying!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person flying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[laughs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a airplane again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What did you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody looking up holding a triangle again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody looking up holding a triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person flying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys did it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys did so good!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You only got one wrong the whole time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you so much for helping Smurphy by playing my game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to play again</t>
   </si>
   <si>
     <t xml:space="preserve"> Unfortunately, we have to go back to the classroom because I have to give all the kids a chance to play before we can play.</t>
   </si>
   <si>
-    <t>Can I have one more turn.</t>
+    <t xml:space="preserve">Can I have one more turn.</t>
   </si>
   <si>
     <t xml:space="preserve"> Once I let everyone play the game, I can take you again, okay?</t>
@@ -566,10 +582,10 @@
     <t xml:space="preserve"> Please, please.</t>
   </si>
   <si>
-    <t>I'm sorry.</t>
-  </si>
-  <si>
-    <t>You can buy this game at home.</t>
+    <t xml:space="preserve">I'm sorry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can buy this game at home.</t>
   </si>
   <si>
     <t xml:space="preserve"> That's true, you can get a similar game on like your mom's iPad.</t>
@@ -578,7 +594,7 @@
     <t xml:space="preserve"> Okay, thanks.</t>
   </si>
   <si>
-    <t>I need bring my stuff.</t>
+    <t xml:space="preserve">I need bring my stuff.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yes, please bring your stuff.</t>
@@ -587,18 +603,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -606,32 +648,62 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,94 +714,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -737,33 +805,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -776,13 +835,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -792,15 +845,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -808,7 +859,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -816,11 +866,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -829,22 +879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G204" activeCellId="0" sqref="G204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.9"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,12 +922,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2400.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2400</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -884,12 +936,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2400.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5400.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5400</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -898,12 +950,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>5400.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>5400</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -912,12 +964,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>7000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -926,12 +978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>8000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12600.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>12600</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -940,12 +992,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>12600.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14800.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>12600</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>14800</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -954,12 +1006,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>14800.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15800.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>14800</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>15800</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -968,12 +1020,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>15800.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>16400.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>15800</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>16400</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -982,12 +1034,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>16400.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>17200.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>16400</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>17200</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -996,12 +1048,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>17200.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>18400.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>17200</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>18400</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1010,12 +1062,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>18400.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>23200.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>18400</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>23200</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1024,12 +1076,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>23200.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>27800.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>23200</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>27800</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1038,12 +1090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>27800.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>28800.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>27800</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>28800</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1052,12 +1104,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>28800.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>35800.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>28800</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>35800</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1066,12 +1118,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>35800.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>41800.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>35800</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>41800</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1080,12 +1132,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>35800.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>41800.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>35800</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>41800</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -1094,12 +1146,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>35800.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>41800.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>35800</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>41800</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1108,12 +1160,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>41800.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45800.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>41800</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45800</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -1122,12 +1174,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>41800.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45800.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>41800</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45800</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1136,12 +1188,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45800.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>46800.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>46800</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
@@ -1150,12 +1202,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45800.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>46800.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>46800</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1164,12 +1216,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>46800.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>49800.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>46800</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>49800</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -1178,12 +1230,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>49800.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>50800.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>49800</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>50800</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>30</v>
@@ -1192,12 +1244,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>50800.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>51800.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>50800</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>51800</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -1206,12 +1258,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>51800.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>54800.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>51800</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>54800</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -1220,12 +1272,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>54800.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>55800.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>54800</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>55800</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -1234,12 +1286,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>55800.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>56800.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>55800</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>56800</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
@@ -1248,12 +1300,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>56800.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>58800.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>56800</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>58800</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
@@ -1262,12 +1314,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>58800.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>62400.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>58800</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>62400</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
@@ -1276,12 +1328,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>62400.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>68940.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>62400</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>68940</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
@@ -1290,12 +1342,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>62400.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>68940.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>62400</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>68940</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
@@ -1304,12 +1356,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>62400.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>68940.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>62400</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>68940</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
@@ -1318,12 +1370,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>68940.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>74940.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>68940</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>74940</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
@@ -1332,12 +1384,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>74940.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>80120.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>74940</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>80120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
@@ -1346,12 +1398,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>80120.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>87780.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>80120</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>87780</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -1360,12 +1412,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>87780.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>91980.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>87780</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>91980</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -1374,12 +1426,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>91980.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>97440.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>91980</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>97440</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -1388,12 +1440,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>97440.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>103920.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>97440</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>103920</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -1402,12 +1454,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>103920.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>106540.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>103920</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>106540</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
@@ -1416,12 +1468,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>106540.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>112800.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>106540</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>112800</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>47</v>
@@ -1430,12 +1482,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>106540.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>112800.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>106540</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>112800</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -1444,12 +1496,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>112800.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>116100.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>112800</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>116100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
@@ -1458,12 +1510,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>116100.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>117100.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>116100</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>117100</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
@@ -1472,12 +1524,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>117100.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>118100.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>117100</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>118100</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>51</v>
@@ -1486,12 +1538,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>118100.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>119100.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>118100</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>119100</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
@@ -1500,12 +1552,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>119100.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>121280.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>119100</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>121280</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>53</v>
@@ -1514,12 +1566,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>121280.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>125520.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>121280</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>125520</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>54</v>
@@ -1528,12 +1580,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>125520.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>129160.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>125520</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>129160</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
@@ -1542,12 +1594,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>129160.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>131760.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>129160</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>131760</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -1556,12 +1608,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>131760.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>134220.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>131760</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>134220</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>57</v>
@@ -1570,12 +1622,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>134220.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>135220.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>134220</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>135220</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>13</v>
@@ -1584,12 +1636,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>135220.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>136220.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>135220</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>136220</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>13</v>
@@ -1598,12 +1650,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>136220.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>137220.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>136220</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>137220</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>58</v>
@@ -1612,12 +1664,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>137220.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>139060.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>137220</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>139060</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>59</v>
@@ -1626,12 +1678,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>139060.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>140260.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>139060</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>140260</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>60</v>
@@ -1640,12 +1692,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>143620.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>144960.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>143620</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>144960</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>61</v>
@@ -1654,12 +1706,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>144960.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>146160.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>144960</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>146160</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>62</v>
@@ -1667,19 +1719,19 @@
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="1">
-        <v>0.0</v>
+      <c r="E58" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>146160.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>146500.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>146160</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>146500</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>64</v>
@@ -1688,12 +1740,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>146500.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>151780.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>146500</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>151780</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>65</v>
@@ -1702,12 +1754,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>151780.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>155260.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>151780</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>155260</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>66</v>
@@ -1716,12 +1768,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>155260.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>156260.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>155260</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>156260</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>67</v>
@@ -1730,12 +1782,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>156260.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>158620.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>156260</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>158620</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>68</v>
@@ -1744,12 +1796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>158620.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>160340.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>158620</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>160340</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>69</v>
@@ -1761,12 +1813,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>160340.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>161820.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>160340</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>161820</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>71</v>
@@ -1778,12 +1830,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>161820.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>164820.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>161820</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>164820</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>72</v>
@@ -1792,12 +1844,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>164820.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>166820.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>164820</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>166820</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
@@ -1809,12 +1861,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>166820.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>168820.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>166820</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>168820</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>74</v>
@@ -1823,12 +1875,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>168820.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>173820.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>168820</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>173820</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>75</v>
@@ -1840,12 +1892,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>173820.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>177820.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>173820</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>177820</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>76</v>
@@ -1854,12 +1906,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>177820.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>178820.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>177820</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>178820</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>77</v>
@@ -1874,12 +1926,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>178820.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>179820.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>178820</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>179820</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>79</v>
@@ -1891,12 +1943,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>179820.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>180820.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>179820</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>180820</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>77</v>
@@ -1908,12 +1960,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>182820.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>184820.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>182820</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>184820</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>80</v>
@@ -1925,12 +1977,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>184820.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>187820.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>184820</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>187820</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>52</v>
@@ -1939,12 +1991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>187820.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>188820.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>187820</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>188820</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>81</v>
@@ -1953,12 +2005,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>188820.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>189820.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>188820</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>189820</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>28</v>
@@ -1967,12 +2019,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>189820.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>190820.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>189820</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>190820</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>82</v>
@@ -1981,12 +2033,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>190820.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>191820.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>190820</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>191820</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>83</v>
@@ -1998,12 +2050,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>191820.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>198060.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>191820</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>198060</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>84</v>
@@ -2012,12 +2064,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>198060.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>199060.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>198060</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>199060</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>85</v>
@@ -2026,12 +2078,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>199060.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>200060.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>199060</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>200060</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>86</v>
@@ -2039,8 +2091,8 @@
       <c r="D82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="1">
-        <v>1.0</v>
+      <c r="E82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>63</v>
@@ -2049,12 +2101,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>200060.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>201060.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>200060</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>201060</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>88</v>
@@ -2066,12 +2118,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>201060.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>202060.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>201060</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>202060</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>89</v>
@@ -2083,12 +2135,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>202060.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>203060.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>202060</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>203060</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>89</v>
@@ -2100,12 +2152,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>204060.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>206060.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>204060</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>206060</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>90</v>
@@ -2114,12 +2166,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>206060.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>208060.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>206060</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>208060</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>91</v>
@@ -2128,12 +2180,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>208060.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>209060.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>208060</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>209060</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>28</v>
@@ -2142,12 +2194,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>209060.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>210060.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>209060</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>210060</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>92</v>
@@ -2156,12 +2208,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>210060.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>211060.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>210060</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>211060</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>92</v>
@@ -2170,12 +2222,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>211060.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>217060.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>211060</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>217060</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>93</v>
@@ -2184,12 +2236,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>217060.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>220060.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>217060</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>220060</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>94</v>
@@ -2197,8 +2249,8 @@
       <c r="D92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E92" s="1">
-        <v>2.0</v>
+      <c r="E92" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>63</v>
@@ -2207,12 +2259,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>220060.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>230060.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>220060</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>230060</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>96</v>
@@ -2221,12 +2273,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>230060.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>231060.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>230060</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>231060</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>97</v>
@@ -2234,8 +2286,8 @@
       <c r="D94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="1">
-        <v>3.0</v>
+      <c r="E94" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>63</v>
@@ -2244,12 +2296,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>231060.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>232060.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>231060</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>232060</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>99</v>
@@ -2258,12 +2310,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>232060.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>233060.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>232060</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>233060</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>99</v>
@@ -2272,12 +2324,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>233060.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>234060.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>233060</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>234060</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>99</v>
@@ -2286,12 +2338,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>234060.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>235060.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>234060</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>235060</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>99</v>
@@ -2300,12 +2352,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>235060.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>236060.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>235060</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>236060</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>99</v>
@@ -2314,12 +2366,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>238060.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>239060.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>238060</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>239060</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>101</v>
@@ -2328,12 +2380,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>239060.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>243060.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>239060</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>243060</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>102</v>
@@ -2341,8 +2393,8 @@
       <c r="D101" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="1">
-        <v>4.0</v>
+      <c r="E101" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>63</v>
@@ -2351,12 +2403,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>243060.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>244060.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>243060</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>244060</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>104</v>
@@ -2368,12 +2420,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>244060.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>245060.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>244060</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>245060</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>105</v>
@@ -2385,12 +2437,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>245060.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>246060.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>245060</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>246060</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>106</v>
@@ -2402,12 +2454,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>246060.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>248060.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>246060</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>248060</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>107</v>
@@ -2419,12 +2471,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>248060.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>249060.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>248060</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>249060</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>108</v>
@@ -2433,12 +2485,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>249060.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>250060.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>249060</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>250060</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>109</v>
@@ -2447,12 +2499,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>250060.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>252060.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>250060</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>252060</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>110</v>
@@ -2464,12 +2516,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>252060.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>254060.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>252060</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>254060</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>111</v>
@@ -2478,12 +2530,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>254060.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>255060.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>254060</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>255060</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>112</v>
@@ -2492,12 +2544,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>255060.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>256060.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>255060</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>256060</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>99</v>
@@ -2506,12 +2558,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>256060.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>257060.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>256060</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>257060</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>99</v>
@@ -2520,12 +2572,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>257060.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>258060.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>257060</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>258060</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>113</v>
@@ -2534,12 +2586,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>260060.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>262060.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>260060</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>262060</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>114</v>
@@ -2548,12 +2600,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>262060.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>265060.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>262060</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>265060</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>115</v>
@@ -2561,19 +2613,19 @@
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="1">
-        <v>5.0</v>
+      <c r="E115" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>265060.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>267060.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>265060</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>267060</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>116</v>
@@ -2582,12 +2634,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>267060.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>271060.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>267060</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>271060</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>117</v>
@@ -2599,12 +2651,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>271060.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>273060.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>271060</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>273060</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>118</v>
@@ -2613,12 +2665,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>273060.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>275060.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>273060</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>275060</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>50</v>
@@ -2630,12 +2682,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>275060.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>277060.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>275060</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>277060</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>119</v>
@@ -2650,12 +2702,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>277060.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>279060.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>277060</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>279060</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>13</v>
@@ -2667,12 +2719,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>281060.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>282060.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>281060</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>282060</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>99</v>
@@ -2681,12 +2733,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>282060.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>283060.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>282060</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>283060</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>99</v>
@@ -2695,12 +2747,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>283060.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>289060.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>283060</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>289060</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>121</v>
@@ -2708,8 +2760,8 @@
       <c r="D124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E124" s="1">
-        <v>6.0</v>
+      <c r="E124" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>63</v>
@@ -2718,12 +2770,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>289060.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>291060.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>289060</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>291060</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>99</v>
@@ -2732,12 +2784,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>291060.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>292060.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>291060</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>292060</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>99</v>
@@ -2746,12 +2798,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>292060.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>293060.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>292060</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>293060</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>99</v>
@@ -2760,12 +2812,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>293060.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>298060.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>293060</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>298060</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>123</v>
@@ -2773,8 +2825,8 @@
       <c r="D128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="1">
-        <v>7.0</v>
+      <c r="E128" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>63</v>
@@ -2783,12 +2835,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>302060.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>303060.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>302060</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>303060</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>125</v>
@@ -2797,12 +2849,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>303060.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>304060.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>303060</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>304060</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>126</v>
@@ -2811,12 +2863,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>304060.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>306060.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>304060</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>306060</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>28</v>
@@ -2825,12 +2877,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>306060.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>307060.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>306060</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>307060</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>127</v>
@@ -2838,19 +2890,19 @@
       <c r="D132" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="1">
-        <v>8.0</v>
+      <c r="E132" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>307060.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>308060.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>307060</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>308060</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>127</v>
@@ -2862,12 +2914,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>308060.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>315060.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>308060</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>315060</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>128</v>
@@ -2876,12 +2928,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>315060.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>319060.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>315060</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>319060</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>129</v>
@@ -2896,12 +2948,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>319060.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>320060.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>319060</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>320060</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>131</v>
@@ -2913,12 +2965,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>320060.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>321060.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>320060</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>321060</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>132</v>
@@ -2930,12 +2982,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>321060.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>322060.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>321060</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>322060</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>133</v>
@@ -2944,12 +2996,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>322060.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>323060.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>322060</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>323060</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>133</v>
@@ -2958,12 +3010,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>323060.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>324060.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>323060</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>324060</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>134</v>
@@ -2972,12 +3024,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>324060.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>325060.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>324060</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>325060</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>134</v>
@@ -2986,12 +3038,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>327060.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>328060.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>327060</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>328060</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>135</v>
@@ -3000,12 +3052,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>328060.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>329060.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>328060</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>329060</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>135</v>
@@ -3014,12 +3066,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>329060.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>334060.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>329060</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>334060</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>136</v>
@@ -3028,12 +3080,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>334060.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>335060.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>334060</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>335060</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>135</v>
@@ -3042,12 +3094,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>336060.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>338560.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>336060</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>338560</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>137</v>
@@ -3056,12 +3108,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>338560.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>341060.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>338560</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>341060</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>50</v>
@@ -3069,19 +3121,19 @@
       <c r="D147" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E147" s="1">
-        <v>9.0</v>
+      <c r="E147" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>341060.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>342560.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>341060</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>342560</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>138</v>
@@ -3090,12 +3142,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>342560.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>344060.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>342560</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>344060</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>50</v>
@@ -3107,12 +3159,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>346060.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>348060.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>346060</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>348060</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>139</v>
@@ -3127,12 +3179,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>348060.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>350060.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>348060</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>350060</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>141</v>
@@ -3141,12 +3193,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>350060.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>351060.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>350060</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>351060</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>142</v>
@@ -3155,12 +3207,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>351060.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>352060.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>351060</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>352060</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>143</v>
@@ -3169,12 +3221,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>352060.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>353060.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>352060</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>353060</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>144</v>
@@ -3186,12 +3238,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>353060.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>354060.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>353060</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>354060</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>145</v>
@@ -3203,12 +3255,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>358060.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>359060.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>358060</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>359060</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>146</v>
@@ -3217,12 +3269,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>359060.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>360060.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>359060</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>360060</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>147</v>
@@ -3231,12 +3283,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>364060.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>365060.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>364060</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>365060</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>148</v>
@@ -3244,8 +3296,8 @@
       <c r="D158" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="1">
-        <v>10.0</v>
+      <c r="E158" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>63</v>
@@ -3254,12 +3306,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>365060.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>367060.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>365060</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>367060</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>99</v>
@@ -3268,12 +3320,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>367060.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>371060.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>367060</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>371060</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>149</v>
@@ -3282,12 +3334,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>375060.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>379060.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>375060</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>379060</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>150</v>
@@ -3296,12 +3348,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>379060.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>380060.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>379060</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>380060</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>151</v>
@@ -3310,12 +3362,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>380060.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>382060.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>380060</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>382060</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>152</v>
@@ -3324,12 +3376,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>382060.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>386060.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>382060</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>386060</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>153</v>
@@ -3338,12 +3390,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>386060.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>388060.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>386060</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>388060</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>114</v>
@@ -3352,12 +3404,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>388060.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>390060.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>388060</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>390060</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>154</v>
@@ -3365,8 +3417,8 @@
       <c r="D166" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E166" s="1">
-        <v>11.0</v>
+      <c r="E166" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>63</v>
@@ -3375,12 +3427,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>390060.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>392060.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>390060</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>392060</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>156</v>
@@ -3392,12 +3444,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>392060.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>393060.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>392060</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>393060</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>28</v>
@@ -3406,12 +3458,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>393060.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>400060.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>393060</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>400060</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>157</v>
@@ -3419,8 +3471,8 @@
       <c r="D169" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E169" s="1">
-        <v>12.0</v>
+      <c r="E169" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>63</v>
@@ -3429,12 +3481,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>400060.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>402060.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>400060</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>402060</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>133</v>
@@ -3443,12 +3495,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>402060.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>405060.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>402060</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>405060</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>28</v>
@@ -3457,12 +3509,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>405060.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>410060.0</v>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>405060</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>410060</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>159</v>
@@ -3470,8 +3522,8 @@
       <c r="D172" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E172" s="1">
-        <v>13.0</v>
+      <c r="E172" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>63</v>
@@ -3480,12 +3532,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>414060.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>415060.0</v>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>414060</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>415060</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>133</v>
@@ -3494,12 +3546,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>415060.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>416060.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>415060</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>416060</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>161</v>
@@ -3508,12 +3560,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>416060.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>422060.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>416060</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>422060</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>148</v>
@@ -3521,8 +3573,8 @@
       <c r="D175" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E175" s="1">
-        <v>14.0</v>
+      <c r="E175" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>63</v>
@@ -3531,12 +3583,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>422060.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>424060.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>422060</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>424060</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>162</v>
@@ -3545,12 +3597,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>424060.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>425060.0</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>424060</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>425060</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>99</v>
@@ -3559,12 +3611,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>425060.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>426060.0</v>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>425060</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>426060</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>28</v>
@@ -3573,12 +3625,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>426060.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>432060.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>426060</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>432060</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>163</v>
@@ -3586,8 +3638,8 @@
       <c r="D179" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E179" s="1">
-        <v>15.0</v>
+      <c r="E179" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>63</v>
@@ -3596,12 +3648,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>432060.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>434060.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>432060</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>434060</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>133</v>
@@ -3610,12 +3662,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>434060.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>441060.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>434060</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>441060</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>164</v>
@@ -3623,19 +3675,19 @@
       <c r="D181" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E181" s="1">
-        <v>16.0</v>
+      <c r="E181" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>441060.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>446060.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>441060</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>446060</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>165</v>
@@ -3650,12 +3702,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>446060.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>447060.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>446060</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>447060</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>133</v>
@@ -3664,12 +3716,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>447060.0</v>
-      </c>
-      <c r="B184" s="1">
-        <v>448060.0</v>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>447060</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>448060</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>133</v>
@@ -3678,12 +3730,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>448060.0</v>
-      </c>
-      <c r="B185" s="1">
-        <v>451060.0</v>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>448060</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>451060</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>167</v>
@@ -3692,12 +3744,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>451060.0</v>
-      </c>
-      <c r="B186" s="1">
-        <v>455060.0</v>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>451060</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>455060</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>163</v>
@@ -3705,8 +3757,8 @@
       <c r="D186" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E186" s="1">
-        <v>17.0</v>
+      <c r="E186" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>63</v>
@@ -3715,12 +3767,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>455060.0</v>
-      </c>
-      <c r="B187" s="1">
-        <v>458060.0</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>455060</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>458060</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>133</v>
@@ -3729,12 +3781,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>458060.0</v>
-      </c>
-      <c r="B188" s="1">
-        <v>465060.0</v>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>458060</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>465060</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>148</v>
@@ -3742,8 +3794,8 @@
       <c r="D188" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E188" s="1">
-        <v>18.0</v>
+      <c r="E188" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>63</v>
@@ -3752,12 +3804,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>465060.0</v>
-      </c>
-      <c r="B189" s="1">
-        <v>466060.0</v>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>465060</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>466060</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>133</v>
@@ -3766,12 +3818,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1">
-        <v>466060.0</v>
-      </c>
-      <c r="B190" s="1">
-        <v>471060.0</v>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>466060</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>471060</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>159</v>
@@ -3779,8 +3831,8 @@
       <c r="D190" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E190" s="1">
-        <v>19.0</v>
+      <c r="E190" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>63</v>
@@ -3789,12 +3841,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1">
-        <v>471060.0</v>
-      </c>
-      <c r="B191" s="1">
-        <v>476060.0</v>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>471060</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>476060</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>168</v>
@@ -3806,12 +3858,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1">
-        <v>477060.0</v>
-      </c>
-      <c r="B192" s="1">
-        <v>478060.0</v>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>477060</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>478060</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>169</v>
@@ -3820,12 +3872,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1">
-        <v>478060.0</v>
-      </c>
-      <c r="B193" s="1">
-        <v>479060.0</v>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>478060</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>479060</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>99</v>
@@ -3834,12 +3886,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1">
-        <v>479060.0</v>
-      </c>
-      <c r="B194" s="1">
-        <v>481060.0</v>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>479060</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>481060</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>170</v>
@@ -3848,12 +3900,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1">
-        <v>481060.0</v>
-      </c>
-      <c r="B195" s="1">
-        <v>485060.0</v>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>481060</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>485060</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>171</v>
@@ -3862,12 +3914,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1">
-        <v>485060.0</v>
-      </c>
-      <c r="B196" s="1">
-        <v>488060.0</v>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>485060</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>488060</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>172</v>
@@ -3876,12 +3928,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1">
-        <v>488060.0</v>
-      </c>
-      <c r="B197" s="1">
-        <v>490060.0</v>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>488060</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>490060</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>173</v>
@@ -3890,12 +3942,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1">
-        <v>490060.0</v>
-      </c>
-      <c r="B198" s="1">
-        <v>496060.0</v>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>490060</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>496060</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>174</v>
@@ -3904,12 +3956,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1">
-        <v>496060.0</v>
-      </c>
-      <c r="B199" s="1">
-        <v>498060.0</v>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>496060</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>498060</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>175</v>
@@ -3918,12 +3970,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1">
-        <v>498060.0</v>
-      </c>
-      <c r="B200" s="1">
-        <v>502060.0</v>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>498060</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>502060</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>176</v>
@@ -3932,12 +3984,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1">
-        <v>502060.0</v>
-      </c>
-      <c r="B201" s="1">
-        <v>504060.0</v>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>502060</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>504060</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>177</v>
@@ -3946,12 +3998,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1">
-        <v>504060.0</v>
-      </c>
-      <c r="B202" s="1">
-        <v>505060.0</v>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>504060</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>505060</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>178</v>
@@ -3960,12 +4012,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1">
-        <v>505060.0</v>
-      </c>
-      <c r="B203" s="1">
-        <v>506060.0</v>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>505060</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>506060</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>179</v>
@@ -3974,12 +4026,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1">
-        <v>506060.0</v>
-      </c>
-      <c r="B204" s="1">
-        <v>508060.0</v>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>506060</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>508060</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>180</v>
@@ -3988,12 +4040,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1">
-        <v>508060.0</v>
-      </c>
-      <c r="B205" s="1">
-        <v>511060.0</v>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>508060</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>511060</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>181</v>
@@ -4002,12 +4054,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1">
-        <v>511060.0</v>
-      </c>
-      <c r="B206" s="1">
-        <v>512060.0</v>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>511060</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>512060</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>182</v>
@@ -4016,12 +4068,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1">
-        <v>512060.0</v>
-      </c>
-      <c r="B207" s="1">
-        <v>514060.0</v>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>512060</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>514060</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>183</v>
@@ -4030,12 +4082,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1">
-        <v>514060.0</v>
-      </c>
-      <c r="B208" s="1">
-        <v>516060.0</v>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>514060</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>516060</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>184</v>
@@ -4044,12 +4096,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1">
-        <v>516060.0</v>
-      </c>
-      <c r="B209" s="1">
-        <v>517060.0</v>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>516060</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>517060</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>132</v>
@@ -4059,7 +4111,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game77.xlsx
+++ b/data/expt_2/raw_transcripts/game77.xlsx
@@ -685,12 +685,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,3227 +890,3227 @@
   <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G204" activeCellId="0" sqref="G204"/>
+      <selection pane="bottomLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>2400</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2400</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>5400</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>5400</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>12600</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>12600</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>14800</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>14800</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>15800</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>15800</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>16400</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>16400</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>17200</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>17200</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>18400</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>18400</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>23200</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>23200</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>27800</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>27800</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>28800</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>28800</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>35800</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>35800</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>41800</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>35800</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>41800</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>35800</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>41800</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>41800</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>41800</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>46800</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>45800</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>46800</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>46800</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>49800</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>49800</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>50800</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>50800</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>51800</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>51800</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>54800</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>54800</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>55800</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>55800</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>56800</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>56800</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>58800</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>58800</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>62400</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>62400</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>68940</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>62400</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>68940</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>62400</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>68940</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>68940</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>74940</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>74940</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>80120</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>80120</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>87780</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>87780</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>91980</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>91980</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>97440</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>97440</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>103920</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>103920</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>106540</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>106540</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>112800</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>106540</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>112800</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>112800</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>116100</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>116100</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>117100</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>117100</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>118100</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>118100</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>119100</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>119100</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>121280</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>121280</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>125520</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>125520</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>129160</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>129160</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>131760</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>131760</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>134220</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>134220</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>135220</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>135220</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>136220</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>136220</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>137220</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>137220</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>139060</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>139060</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>140260</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>143620</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>144960</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>144960</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>146160</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="1" t="n">
+      <c r="D58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>146160</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>146500</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>146500</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>151780</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>151780</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>155260</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>155260</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>156260</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>156260</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>158620</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>158620</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>160340</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>160340</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>161820</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>161820</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>164820</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>164820</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>166820</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>166820</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>168820</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>168820</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>173820</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="D69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>173820</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>177820</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>177820</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>178820</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="D71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>178820</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>179820</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>179820</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>180820</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="D73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>182820</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>184820</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>184820</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>187820</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>187820</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>188820</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>188820</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>189820</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>189820</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>190820</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>190820</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>191820</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="D79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>191820</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>198060</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>198060</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>199060</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>199060</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>200060</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="1" t="n">
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>200060</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>201060</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="D83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>201060</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>202060</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="D84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>202060</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>203060</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="D85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>204060</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>206060</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>206060</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>208060</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>208060</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>209060</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>209060</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>210060</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>210060</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>211060</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>211060</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>217060</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>217060</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>220060</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="1" t="n">
+      <c r="D92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>220060</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>230060</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>230060</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>231060</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="1" t="n">
+      <c r="D94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>231060</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>232060</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>232060</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>233060</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>233060</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>234060</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>234060</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>235060</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>235060</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>236060</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>238060</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>239060</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>239060</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="1" t="n">
+      <c r="D101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>243060</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>244060</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="D102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>244060</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>245060</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="D103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>245060</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>246060</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>246060</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>248060</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>248060</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>249060</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>249060</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>250060</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>250060</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>252060</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>252060</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>254060</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>254060</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>255060</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>255060</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>256060</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>256060</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>257060</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>257060</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>258060</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>260060</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>262060</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>262060</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>265060</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="1" t="n">
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>265060</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>267060</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>267060</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>271060</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>271060</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>273060</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>273060</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>275060</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="D119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>275060</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>277060</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>277060</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>279060</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>281060</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>282060</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>282060</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>283060</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>283060</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>289060</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="1" t="n">
+      <c r="D124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>289060</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>291060</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>291060</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>292060</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>292060</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>293060</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>293060</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>298060</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="1" t="n">
+      <c r="D128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>302060</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>303060</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>303060</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>304060</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>304060</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>306060</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>306060</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>307060</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132" s="1" t="n">
+      <c r="D132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>307060</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>308060</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>308060</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>315060</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>315060</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>319060</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="D135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>319060</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>320060</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="D136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>320060</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>321060</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="D137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>321060</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>322060</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>322060</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>323060</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>323060</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>324060</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>324060</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>325060</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>327060</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>328060</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>328060</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>329060</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>329060</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>334060</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>334060</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>335060</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>336060</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>338560</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>338560</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>341060</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="D147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>341060</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>342560</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>342560</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>344060</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="D149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>346060</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>348060</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="1" t="s">
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>348060</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>350060</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>350060</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>351060</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>351060</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>352060</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>352060</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>353060</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="D154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>353060</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>354060</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="D155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>358060</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>359060</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>359060</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>360060</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>364060</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>365060</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E158" s="1" t="n">
+      <c r="D158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>365060</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>367060</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>367060</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>371060</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>375060</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>379060</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>379060</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>380060</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>380060</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>382060</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>382060</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>386060</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>386060</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>388060</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>388060</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>390060</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="1" t="n">
+      <c r="D166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="H166" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>390060</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>392060</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="1" t="s">
+      <c r="D167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>392060</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>393060</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>393060</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>400060</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E169" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="F169" s="1" t="s">
+      <c r="D169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H169" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>400060</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>402060</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>402060</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>405060</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>405060</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>410060</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="1" t="n">
+      <c r="D172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H172" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>414060</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>415060</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>415060</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>416060</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>416060</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>422060</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E175" s="1" t="n">
+      <c r="D175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="H175" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>422060</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>424060</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>424060</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>425060</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>425060</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>426060</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>426060</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>432060</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" s="1" t="n">
+      <c r="D179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="H179" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>432060</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>434060</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>434060</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>441060</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" s="1" t="n">
+      <c r="D181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>441060</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>446060</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="D182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H182" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>446060</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>447060</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>447060</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>448060</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>448060</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>451060</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>451060</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>455060</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" s="1" t="n">
+      <c r="D186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F186" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="H186" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>455060</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>458060</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>458060</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="2" t="n">
         <v>465060</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E188" s="1" t="n">
+      <c r="D188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="F188" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="H188" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>465060</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="2" t="n">
         <v>466060</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>466060</v>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="2" t="n">
         <v>471060</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" s="1" t="n">
+      <c r="D190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F190" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="H190" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>471060</v>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="2" t="n">
         <v>476060</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="1" t="s">
+      <c r="D191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>477060</v>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="2" t="n">
         <v>478060</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>478060</v>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="2" t="n">
         <v>479060</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>479060</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="2" t="n">
         <v>481060</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>481060</v>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="2" t="n">
         <v>485060</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>485060</v>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="2" t="n">
         <v>488060</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>488060</v>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="2" t="n">
         <v>490060</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>490060</v>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="2" t="n">
         <v>496060</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>496060</v>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="2" t="n">
         <v>498060</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>498060</v>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="2" t="n">
         <v>502060</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>502060</v>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="2" t="n">
         <v>504060</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>504060</v>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="2" t="n">
         <v>505060</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>505060</v>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="2" t="n">
         <v>506060</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>506060</v>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="2" t="n">
         <v>508060</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>508060</v>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="2" t="n">
         <v>511060</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>511060</v>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="2" t="n">
         <v>512060</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>512060</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="2" t="n">
         <v>514060</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>514060</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="2" t="n">
         <v>516060</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>516060</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="2" t="n">
         <v>517060</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game77.xlsx
+++ b/data/expt_2/raw_transcripts/game77.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="187">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -69,6 +69,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Now I'm recording.</t>
   </si>
   <si>
@@ -280,6 +283,9 @@
   </si>
   <si>
     <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Apple?</t>
@@ -685,7 +691,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,6 +701,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,12 +901,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="E83" activeCellId="0" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,6 +939,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -934,10 +951,10 @@
         <v>2400</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +965,10 @@
         <v>5400</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +979,10 @@
         <v>7000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +993,10 @@
         <v>8000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +1007,10 @@
         <v>12600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1021,10 @@
         <v>14800</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,10 +1035,10 @@
         <v>15800</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,10 +1049,10 @@
         <v>16400</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1063,10 @@
         <v>17200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1077,10 @@
         <v>18400</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1091,10 @@
         <v>23200</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1105,10 @@
         <v>27800</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1119,10 @@
         <v>28800</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1133,10 @@
         <v>35800</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1147,10 @@
         <v>41800</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1161,10 @@
         <v>41800</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,10 +1175,10 @@
         <v>41800</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,10 +1189,10 @@
         <v>45800</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1203,10 @@
         <v>45800</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,10 +1217,10 @@
         <v>46800</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +1231,10 @@
         <v>46800</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1245,10 @@
         <v>49800</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,10 +1259,10 @@
         <v>50800</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,10 +1273,10 @@
         <v>51800</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1287,10 @@
         <v>54800</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1301,10 @@
         <v>55800</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +1315,10 @@
         <v>56800</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1329,10 @@
         <v>58800</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,10 +1343,10 @@
         <v>62400</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1357,10 @@
         <v>68940</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,10 +1371,10 @@
         <v>68940</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,10 +1385,10 @@
         <v>68940</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,10 +1399,10 @@
         <v>74940</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,10 +1413,10 @@
         <v>80120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,10 +1427,10 @@
         <v>87780</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,10 +1441,10 @@
         <v>91980</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,10 +1455,10 @@
         <v>97440</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,10 +1469,10 @@
         <v>103920</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,10 +1483,10 @@
         <v>106540</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,10 +1497,10 @@
         <v>112800</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,10 +1511,10 @@
         <v>112800</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1525,10 @@
         <v>116100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,10 +1539,10 @@
         <v>117100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1553,10 @@
         <v>118100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,10 +1567,10 @@
         <v>119100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,10 +1581,10 @@
         <v>121280</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,10 +1595,10 @@
         <v>125520</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,10 +1609,10 @@
         <v>129160</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,10 +1623,10 @@
         <v>131760</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,10 +1637,10 @@
         <v>134220</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,10 +1651,10 @@
         <v>135220</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,10 +1665,10 @@
         <v>136220</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1679,10 @@
         <v>137220</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,10 +1693,10 @@
         <v>139060</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,10 +1707,10 @@
         <v>140260</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,10 +1721,10 @@
         <v>144960</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,16 +1735,16 @@
         <v>146160</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,10 +1755,10 @@
         <v>146500</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,10 +1769,10 @@
         <v>151780</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,10 +1783,10 @@
         <v>155260</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,10 +1797,10 @@
         <v>156260</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +1811,10 @@
         <v>158620</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,13 +1825,13 @@
         <v>160340</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,13 +1842,13 @@
         <v>161820</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,10 +1859,10 @@
         <v>164820</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,13 +1873,13 @@
         <v>166820</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +1890,10 @@
         <v>168820</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,13 +1904,13 @@
         <v>173820</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,10 +1921,10 @@
         <v>177820</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,16 +1935,19 @@
         <v>178820</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,13 +1958,16 @@
         <v>179820</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,13 +1978,16 @@
         <v>180820</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,13 +1998,13 @@
         <v>184820</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2015,10 @@
         <v>187820</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,10 +2029,10 @@
         <v>188820</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,10 +2043,10 @@
         <v>189820</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,10 +2057,10 @@
         <v>190820</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,13 +2071,13 @@
         <v>191820</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,10 +2088,10 @@
         <v>198060</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,10 +2102,13 @@
         <v>199060</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,19 +2119,22 @@
         <v>200060</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,13 +2145,16 @@
         <v>201060</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,13 +2165,16 @@
         <v>202060</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,13 +2185,16 @@
         <v>203060</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,10 +2205,10 @@
         <v>206060</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,10 +2219,10 @@
         <v>208060</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,10 +2233,10 @@
         <v>209060</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,10 +2247,13 @@
         <v>210060</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2264,13 @@
         <v>211060</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,10 +2281,10 @@
         <v>217060</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,19 +2295,22 @@
         <v>220060</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,10 +2321,10 @@
         <v>230060</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,19 +2335,22 @@
         <v>231060</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,10 +2361,10 @@
         <v>232060</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2375,13 @@
         <v>233060</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,10 +2392,13 @@
         <v>234060</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,10 +2409,13 @@
         <v>235060</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,10 +2426,13 @@
         <v>236060</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,10 +2443,10 @@
         <v>239060</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,19 +2457,22 @@
         <v>243060</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,13 +2483,16 @@
         <v>244060</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,13 +2503,16 @@
         <v>245060</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,13 +2523,16 @@
         <v>246060</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,13 +2543,16 @@
         <v>248060</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,10 +2563,10 @@
         <v>249060</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2577,10 @@
         <v>250060</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,13 +2591,16 @@
         <v>252060</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,10 +2611,10 @@
         <v>254060</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2625,10 @@
         <v>255060</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,10 +2639,13 @@
         <v>256060</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2656,13 @@
         <v>257060</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,10 +2673,13 @@
         <v>258060</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,10 +2690,10 @@
         <v>262060</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,16 +2704,19 @@
         <v>265060</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,10 +2727,10 @@
         <v>267060</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,13 +2741,16 @@
         <v>271060</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2761,10 @@
         <v>273060</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,13 +2775,16 @@
         <v>275060</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,16 +2795,19 @@
         <v>277060</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,13 +2818,16 @@
         <v>279060</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,10 +2838,13 @@
         <v>282060</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,10 +2855,13 @@
         <v>283060</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,19 +2872,22 @@
         <v>289060</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2898,10 @@
         <v>291060</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,10 +2912,13 @@
         <v>292060</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,10 +2929,13 @@
         <v>293060</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,19 +2946,22 @@
         <v>298060</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +2972,13 @@
         <v>303060</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,10 +2989,13 @@
         <v>304060</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,10 +3006,10 @@
         <v>306060</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,16 +3020,19 @@
         <v>307060</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,13 +3043,16 @@
         <v>308060</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,10 +3063,10 @@
         <v>315060</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,16 +3077,19 @@
         <v>319060</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,13 +3100,16 @@
         <v>320060</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,13 +3120,16 @@
         <v>321060</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,10 +3140,13 @@
         <v>322060</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,10 +3157,13 @@
         <v>323060</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,10 +3174,13 @@
         <v>324060</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,10 +3191,13 @@
         <v>325060</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,10 +3208,13 @@
         <v>328060</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,10 +3225,13 @@
         <v>329060</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +3242,13 @@
         <v>334060</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3259,13 @@
         <v>335060</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,10 +3276,10 @@
         <v>338560</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,16 +3290,19 @@
         <v>341060</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,10 +3313,10 @@
         <v>342560</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,13 +3327,16 @@
         <v>344060</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,16 +3347,19 @@
         <v>348060</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,10 +3370,10 @@
         <v>350060</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,10 +3384,10 @@
         <v>351060</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3398,10 @@
         <v>352060</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,13 +3412,16 @@
         <v>353060</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,13 +3432,16 @@
         <v>354060</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3452,10 @@
         <v>359060</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +3466,10 @@
         <v>360060</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,19 +3480,22 @@
         <v>365060</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,10 +3506,13 @@
         <v>367060</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,10 +3523,10 @@
         <v>371060</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,10 +3537,13 @@
         <v>379060</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,10 +3554,10 @@
         <v>380060</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,10 +3568,13 @@
         <v>382060</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,10 +3585,10 @@
         <v>386060</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,10 +3599,10 @@
         <v>388060</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,19 +3613,22 @@
         <v>390060</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,13 +3639,16 @@
         <v>392060</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,10 +3659,10 @@
         <v>393060</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,19 +3673,22 @@
         <v>400060</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,10 +3699,13 @@
         <v>402060</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,10 +3716,10 @@
         <v>405060</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,19 +3730,22 @@
         <v>410060</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3756,13 @@
         <v>415060</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,10 +3773,10 @@
         <v>416060</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,19 +3787,22 @@
         <v>422060</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E175" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3813,13 @@
         <v>424060</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,10 +3830,13 @@
         <v>425060</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,10 +3847,10 @@
         <v>426060</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,19 +3861,22 @@
         <v>432060</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E179" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,10 +3887,13 @@
         <v>434060</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,16 +3904,16 @@
         <v>441060</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E181" s="2" t="n">
         <v>16</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,16 +3924,19 @@
         <v>446060</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,10 +3947,13 @@
         <v>447060</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +3964,13 @@
         <v>448060</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3981,13 @@
         <v>451060</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,19 +3998,22 @@
         <v>455060</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E186" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,10 +4024,13 @@
         <v>458060</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,19 +4041,22 @@
         <v>465060</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,10 +4067,13 @@
         <v>466060</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,19 +4084,22 @@
         <v>471060</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E190" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,13 +4110,16 @@
         <v>476060</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,10 +4130,10 @@
         <v>478060</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,10 +4144,10 @@
         <v>479060</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,10 +4158,10 @@
         <v>481060</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,10 +4172,10 @@
         <v>485060</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,10 +4186,10 @@
         <v>488060</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,10 +4200,13 @@
         <v>490060</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,10 +4217,10 @@
         <v>496060</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,10 +4231,13 @@
         <v>498060</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,10 +4248,10 @@
         <v>502060</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,10 +4262,13 @@
         <v>504060</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,10 +4279,13 @@
         <v>505060</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,10 +4296,10 @@
         <v>506060</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,10 +4310,13 @@
         <v>508060</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,10 +4327,10 @@
         <v>511060</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,10 +4341,13 @@
         <v>512060</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,10 +4358,13 @@
         <v>514060</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,10 +4375,10 @@
         <v>516060</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4108,10 +4389,10 @@
         <v>517060</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
